--- a/Fasit_flervalg_original.xlsx
+++ b/Fasit_flervalg_original.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://akademiet-my.sharepoint.com/personal/78weikri_akademiet_no/Documents/Programmering/kjemAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1425" documentId="11_AD4D1D646341095ACB70006B1D93EC80693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3CA01DF-7C94-49B0-9251-6C7505399DF4}"/>
+  <xr:revisionPtr revIDLastSave="1497" documentId="11_AD4D1D646341095ACB70006B1D93EC80693EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCABDBD7-096B-44F8-992A-B2CDA5E43EAD}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34515" yWindow="240" windowWidth="16845" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="96">
   <si>
     <t>2024 Runde 1</t>
   </si>
@@ -306,6 +306,24 @@
   </si>
   <si>
     <t>Delt 366. plass</t>
+  </si>
+  <si>
+    <t>14/25</t>
+  </si>
+  <si>
+    <t>ChatGPT4 turbo 2</t>
+  </si>
+  <si>
+    <t>16/30</t>
+  </si>
+  <si>
+    <t>50 POENG</t>
+  </si>
+  <si>
+    <t>delt 479. plass</t>
+  </si>
+  <si>
+    <t>Av 1147 deltakarar</t>
   </si>
 </sst>
 </file>
@@ -645,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS31"/>
+  <dimension ref="A1:BU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AQ10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,50 +676,52 @@
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="70" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="72" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -715,202 +735,208 @@
         <v>87</v>
       </c>
       <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>48</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>50</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>51</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>57</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -926,131 +952,131 @@
       <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
-        <v>67</v>
+      <c r="F2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
         <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" t="s">
         <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="S2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="X2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Z2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA2" t="s">
         <v>68</v>
       </c>
       <c r="AB2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AC2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AE2" t="s">
         <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AJ2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK2" t="s">
         <v>68</v>
       </c>
       <c r="AL2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AM2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN2" t="s">
         <v>66</v>
       </c>
       <c r="AO2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AP2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AQ2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AR2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AS2" t="s">
         <v>69</v>
       </c>
       <c r="AT2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AU2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AV2" t="s">
         <v>68</v>
@@ -1062,70 +1088,76 @@
         <v>68</v>
       </c>
       <c r="AY2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AZ2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BA2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BB2" t="s">
         <v>66</v>
       </c>
       <c r="BC2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BD2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BE2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BF2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BH2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BI2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BJ2" t="s">
         <v>66</v>
       </c>
       <c r="BK2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BL2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BM2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BN2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BO2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BP2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BQ2" t="s">
         <v>66</v>
       </c>
       <c r="BR2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1141,119 +1173,119 @@
       <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
         <v>66</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
         <v>66</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S3" t="s">
         <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X3" t="s">
         <v>69</v>
       </c>
       <c r="Y3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AJ3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s">
         <v>66</v>
       </c>
       <c r="AL3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AM3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AO3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AQ3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AR3" t="s">
         <v>66</v>
@@ -1265,79 +1297,85 @@
         <v>66</v>
       </c>
       <c r="AU3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AY3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AZ3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BA3" t="s">
         <v>68</v>
       </c>
       <c r="BB3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BC3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BD3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BE3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BG3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BH3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BI3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BJ3" t="s">
         <v>68</v>
       </c>
       <c r="BK3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BL3" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>68</v>
       </c>
       <c r="BN3" t="s">
         <v>66</v>
       </c>
-      <c r="BO3" t="s">
-        <v>68</v>
-      </c>
       <c r="BP3" t="s">
         <v>66</v>
       </c>
       <c r="BQ3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BR3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BS3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1353,29 +1391,29 @@
       <c r="E4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
-        <v>69</v>
+      <c r="F4" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
+      <c r="J4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
         <v>66</v>
@@ -1384,172 +1422,178 @@
         <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T4" t="s">
         <v>68</v>
       </c>
       <c r="U4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z4" t="s">
         <v>66</v>
       </c>
       <c r="AA4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB4" t="s">
         <v>66</v>
       </c>
       <c r="AC4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AE4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s">
         <v>69</v>
       </c>
       <c r="AH4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AI4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AK4" t="s">
         <v>68</v>
       </c>
       <c r="AL4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AM4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s">
         <v>68</v>
       </c>
       <c r="AO4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AP4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AR4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AT4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AU4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AV4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AW4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AX4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AZ4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BA4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BB4" t="s">
         <v>67</v>
       </c>
       <c r="BC4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BD4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BE4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BF4" t="s">
         <v>69</v>
       </c>
       <c r="BG4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BH4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BI4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BJ4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BK4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL4" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>69</v>
       </c>
       <c r="BN4" t="s">
         <v>68</v>
       </c>
-      <c r="BO4" t="s">
-        <v>67</v>
-      </c>
       <c r="BP4" t="s">
         <v>68</v>
       </c>
       <c r="BQ4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BR4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BS4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1565,17 +1609,17 @@
       <c r="E5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
         <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
         <v>66</v>
@@ -1584,19 +1628,19 @@
         <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
         <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q5" t="s">
         <v>68</v>
@@ -1605,19 +1649,19 @@
         <v>67</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X5" t="s">
         <v>66</v>
@@ -1626,16 +1670,16 @@
         <v>69</v>
       </c>
       <c r="Z5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA5" t="s">
         <v>69</v>
       </c>
       <c r="AB5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AD5" t="s">
         <v>68</v>
@@ -1644,88 +1688,88 @@
         <v>66</v>
       </c>
       <c r="AF5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AG5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AI5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AL5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO5" t="s">
         <v>67</v>
       </c>
       <c r="AP5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AQ5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AS5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AT5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU5" t="s">
         <v>69</v>
       </c>
       <c r="AV5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AX5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AY5" t="s">
         <v>66</v>
       </c>
       <c r="AZ5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BA5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BB5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BC5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BD5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BF5" t="s">
         <v>69</v>
       </c>
       <c r="BG5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BH5" t="s">
         <v>69</v>
@@ -1737,31 +1781,37 @@
         <v>69</v>
       </c>
       <c r="BK5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BL5" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>68</v>
       </c>
       <c r="BN5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BP5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BQ5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BS5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1777,92 +1827,92 @@
       <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="F6" t="s">
-        <v>66</v>
+      <c r="F6" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
         <v>67</v>
       </c>
       <c r="O6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="U6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V6" t="s">
         <v>68</v>
       </c>
       <c r="W6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X6" t="s">
         <v>68</v>
       </c>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AA6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF6" t="s">
         <v>67</v>
       </c>
       <c r="AG6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI6" t="s">
         <v>68</v>
@@ -1871,109 +1921,115 @@
         <v>66</v>
       </c>
       <c r="AK6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AM6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN6" t="s">
         <v>69</v>
       </c>
       <c r="AO6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AP6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AQ6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AR6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AS6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AT6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AU6" t="s">
         <v>66</v>
       </c>
       <c r="AV6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AW6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AX6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AY6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AZ6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BA6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BB6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BC6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BD6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BE6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BF6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BG6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BH6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BI6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BJ6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BK6" t="s">
         <v>67</v>
       </c>
       <c r="BL6" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>67</v>
       </c>
       <c r="BN6" t="s">
         <v>69</v>
       </c>
-      <c r="BO6" t="s">
-        <v>67</v>
-      </c>
       <c r="BP6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BQ6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BR6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BS6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1989,53 +2045,53 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" t="s">
-        <v>69</v>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="G7" t="s">
         <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O7" t="s">
         <v>67</v>
       </c>
       <c r="P7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
         <v>67</v>
       </c>
       <c r="U7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s">
         <v>67</v>
@@ -2044,49 +2100,49 @@
         <v>68</v>
       </c>
       <c r="X7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Z7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AC7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AJ7" t="s">
         <v>69</v>
       </c>
       <c r="AK7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AM7" t="s">
         <v>67</v>
@@ -2095,10 +2151,10 @@
         <v>68</v>
       </c>
       <c r="AO7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AQ7" t="s">
         <v>68</v>
@@ -2110,31 +2166,31 @@
         <v>68</v>
       </c>
       <c r="AT7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AU7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AW7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AX7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AY7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AZ7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BA7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BC7" t="s">
         <v>68</v>
@@ -2143,49 +2199,55 @@
         <v>66</v>
       </c>
       <c r="BE7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BF7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BG7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BH7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BI7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BJ7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BK7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BL7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BM7" t="s">
         <v>69</v>
       </c>
       <c r="BN7" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BP7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BQ7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BR7" t="s">
         <v>66</v>
       </c>
       <c r="BS7" t="s">
+        <v>68</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2201,20 +2263,20 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
-        <v>67</v>
+      <c r="F8" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="K8" t="s">
         <v>67</v>
@@ -2223,37 +2285,37 @@
         <v>68</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N8" t="s">
         <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S8" t="s">
         <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
         <v>66</v>
       </c>
       <c r="V8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="X8" t="s">
         <v>66</v>
@@ -2265,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="AA8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AB8" t="s">
         <v>66</v>
@@ -2277,127 +2339,133 @@
         <v>66</v>
       </c>
       <c r="AE8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AH8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="s">
         <v>67</v>
       </c>
       <c r="AJ8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AK8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AO8" t="s">
         <v>69</v>
       </c>
       <c r="AP8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AQ8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AS8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AT8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AU8" t="s">
         <v>66</v>
       </c>
       <c r="AV8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AX8" t="s">
         <v>66</v>
       </c>
       <c r="AY8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AZ8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BA8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BB8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BC8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BD8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BE8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BF8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BG8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BH8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BI8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BJ8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BK8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BL8" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>68</v>
       </c>
       <c r="BN8" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO8" t="s">
         <v>66</v>
       </c>
       <c r="BP8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BQ8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BR8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BS8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BU8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2413,134 +2481,134 @@
       <c r="E9" t="s">
         <v>67</v>
       </c>
-      <c r="F9" t="s">
-        <v>69</v>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
         <v>67</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P9" t="s">
         <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T9" t="s">
         <v>69</v>
       </c>
       <c r="U9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W9" t="s">
         <v>69</v>
       </c>
       <c r="X9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Z9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AA9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB9" t="s">
         <v>67</v>
       </c>
       <c r="AC9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE9" t="s">
         <v>69</v>
       </c>
       <c r="AF9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AG9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AH9" t="s">
         <v>69</v>
       </c>
       <c r="AI9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AJ9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AN9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AO9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP9" t="s">
         <v>67</v>
       </c>
       <c r="AQ9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AR9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT9" t="s">
         <v>68</v>
       </c>
       <c r="AU9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AW9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AX9" t="s">
         <v>66</v>
@@ -2552,61 +2620,67 @@
         <v>66</v>
       </c>
       <c r="BA9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BB9" t="s">
         <v>66</v>
       </c>
       <c r="BC9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BD9" t="s">
         <v>66</v>
       </c>
       <c r="BE9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF9" t="s">
         <v>66</v>
       </c>
       <c r="BG9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BH9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BI9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BJ9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BK9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BL9" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>66</v>
       </c>
       <c r="BN9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BP9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BQ9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BR9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BS9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2622,59 +2696,59 @@
       <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
-        <v>68</v>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R10" t="s">
         <v>67</v>
       </c>
       <c r="S10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="X10" t="s">
         <v>67</v>
@@ -2683,7 +2757,7 @@
         <v>66</v>
       </c>
       <c r="Z10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA10" t="s">
         <v>66</v>
@@ -2692,24 +2766,24 @@
         <v>69</v>
       </c>
       <c r="AC10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AE10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>68</v>
       </c>
       <c r="AI10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ10" t="s">
         <v>67</v>
       </c>
       <c r="AK10" t="s">
@@ -2719,34 +2793,34 @@
         <v>67</v>
       </c>
       <c r="AM10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN10" t="s">
         <v>67</v>
       </c>
       <c r="AO10" t="s">
         <v>67</v>
       </c>
-      <c r="AP10" t="s">
-        <v>68</v>
-      </c>
       <c r="AQ10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS10" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>69</v>
       </c>
       <c r="AU10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AX10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AY10" t="s">
         <v>69</v>
@@ -2755,55 +2829,61 @@
         <v>68</v>
       </c>
       <c r="BA10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BB10" t="s">
         <v>68</v>
       </c>
+      <c r="BC10" t="s">
+        <v>68</v>
+      </c>
       <c r="BD10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BF10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BH10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BI10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ10" t="s">
         <v>66</v>
       </c>
       <c r="BK10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BL10" t="s">
         <v>66</v>
       </c>
-      <c r="BO10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>67</v>
+      <c r="BM10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>66</v>
       </c>
       <c r="BQ10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BR10" t="s">
         <v>67</v>
       </c>
       <c r="BS10" t="s">
+        <v>66</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BU10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2819,8 +2899,8 @@
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
-        <v>66</v>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="G11" t="s">
         <v>66</v>
@@ -2831,23 +2911,23 @@
       <c r="I11" t="s">
         <v>66</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>66</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s">
         <v>66</v>
@@ -2865,130 +2945,136 @@
         <v>66</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Y11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Z11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AD11" t="s">
         <v>66</v>
       </c>
       <c r="AE11" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>66</v>
       </c>
       <c r="AG11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AI11" t="s">
         <v>66</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>69</v>
+      <c r="AK11" t="s">
+        <v>66</v>
       </c>
       <c r="AL11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>66</v>
       </c>
       <c r="AO11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>69</v>
       </c>
       <c r="AR11" t="s">
         <v>66</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AT11" t="s">
         <v>66</v>
       </c>
       <c r="AU11" t="s">
         <v>66</v>
       </c>
-      <c r="AV11" t="s">
-        <v>66</v>
-      </c>
       <c r="AW11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AX11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AY11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AZ11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BA11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="BB11" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>66</v>
       </c>
       <c r="BD11" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BF11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BG11" t="s">
         <v>66</v>
       </c>
       <c r="BH11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BI11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BJ11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BK11" t="s">
         <v>69</v>
       </c>
       <c r="BL11" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>68</v>
       </c>
       <c r="BR11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BS11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3004,110 +3090,116 @@
       <c r="E12" t="s">
         <v>67</v>
       </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
+      <c r="F12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
       </c>
       <c r="M12" t="s">
         <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" t="s">
-        <v>67</v>
-      </c>
-      <c r="U12" t="s">
-        <v>68</v>
-      </c>
-      <c r="V12" t="s">
-        <v>69</v>
+        <v>69</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+      <c r="T12" t="s">
+        <v>67</v>
+      </c>
+      <c r="W12" t="s">
+        <v>68</v>
       </c>
       <c r="X12" t="s">
         <v>69</v>
       </c>
-      <c r="Y12" t="s">
-        <v>67</v>
+      <c r="Z12" t="s">
+        <v>69</v>
       </c>
       <c r="AA12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC12" t="s">
         <v>66</v>
       </c>
       <c r="AD12" t="s">
         <v>66</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>66</v>
       </c>
       <c r="AI12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>68</v>
       </c>
       <c r="AL12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO12" t="s">
         <v>68</v>
       </c>
       <c r="AR12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT12" t="s">
         <v>69</v>
       </c>
       <c r="AU12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV12" t="s">
         <v>69</v>
       </c>
       <c r="AW12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX12" t="s">
         <v>69</v>
       </c>
       <c r="AY12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>66</v>
       </c>
       <c r="BF12" t="s">
         <v>66</v>
       </c>
       <c r="BG12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BH12" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR12" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN12" t="s">
         <v>69</v>
       </c>
       <c r="BS12" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3123,107 +3215,113 @@
       <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
         <v>66</v>
       </c>
       <c r="M13" t="s">
         <v>66</v>
       </c>
       <c r="O13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R13" t="s">
-        <v>67</v>
-      </c>
-      <c r="U13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V13" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W13" t="s">
+        <v>68</v>
       </c>
       <c r="X13" t="s">
         <v>66</v>
       </c>
-      <c r="Y13" t="s">
-        <v>69</v>
+      <c r="Z13" t="s">
+        <v>66</v>
       </c>
       <c r="AA13" t="s">
         <v>69</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>69</v>
       </c>
       <c r="AD13" t="s">
         <v>69</v>
       </c>
-      <c r="AG13" t="s">
-        <v>68</v>
+      <c r="AF13" t="s">
+        <v>69</v>
       </c>
       <c r="AI13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>69</v>
       </c>
       <c r="AL13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>67</v>
+        <v>67</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>69</v>
       </c>
       <c r="AR13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT13" t="s">
         <v>68</v>
       </c>
       <c r="AU13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX13" t="s">
         <v>69</v>
       </c>
       <c r="AY13" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>68</v>
       </c>
       <c r="BF13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BG13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BH13" t="s">
         <v>67</v>
       </c>
-      <c r="BK13" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ13" t="s">
+      <c r="BI13" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS13" t="s">
         <v>70</v>
       </c>
-      <c r="BS13" s="1" t="s">
+      <c r="BU13" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3239,86 +3337,92 @@
       <c r="E14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" t="s">
-        <v>69</v>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O14" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U14" t="s">
-        <v>69</v>
-      </c>
-      <c r="X14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC14" t="s">
         <v>66</v>
       </c>
       <c r="AD14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>69</v>
       </c>
       <c r="AL14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>67</v>
       </c>
       <c r="AR14" t="s">
         <v>69</v>
       </c>
-      <c r="AS14" t="s">
-        <v>67</v>
+      <c r="AT14" t="s">
+        <v>69</v>
       </c>
       <c r="AU14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>66</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>69</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>68</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>68</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3334,83 +3438,89 @@
       <c r="E15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K15" t="s">
-        <v>67</v>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
       </c>
       <c r="M15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
-      </c>
-      <c r="R15" t="s">
-        <v>68</v>
-      </c>
-      <c r="U15" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
       </c>
       <c r="AD15" t="s">
         <v>69</v>
       </c>
-      <c r="AG15" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AF15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI15" t="s">
         <v>66</v>
       </c>
       <c r="AL15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>66</v>
+        <v>66</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>69</v>
       </c>
       <c r="AR15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>67</v>
       </c>
       <c r="AW15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>69</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3426,77 +3536,83 @@
       <c r="E16" t="s">
         <v>67</v>
       </c>
-      <c r="H16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>66</v>
       </c>
       <c r="M16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" t="s">
-        <v>66</v>
-      </c>
-      <c r="U16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" t="s">
+        <v>66</v>
+      </c>
+      <c r="W16" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>69</v>
       </c>
       <c r="AD16" t="s">
         <v>67</v>
       </c>
-      <c r="AG16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AF16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI16" t="s">
         <v>68</v>
       </c>
       <c r="AL16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>68</v>
+        <v>68</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>69</v>
       </c>
       <c r="AR16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>68</v>
+        <v>68</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>67</v>
       </c>
       <c r="AW16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>68</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>68</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3512,68 +3628,74 @@
       <c r="E17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H17" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" t="s">
         <v>67</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
-      </c>
-      <c r="R17" t="s">
-        <v>69</v>
-      </c>
-      <c r="U17" t="s">
-        <v>69</v>
-      </c>
-      <c r="X17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" t="s">
+        <v>69</v>
+      </c>
+      <c r="W17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>68</v>
       </c>
       <c r="AR17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>66</v>
       </c>
       <c r="AW17" t="s">
         <v>66</v>
       </c>
-      <c r="BD17" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ17" t="s">
+      <c r="AX17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3589,62 +3711,68 @@
       <c r="E18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H18" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" t="s">
-        <v>67</v>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" t="s">
-        <v>66</v>
-      </c>
-      <c r="U18" t="s">
-        <v>66</v>
-      </c>
-      <c r="X18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP18" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO18" t="s">
         <v>67</v>
       </c>
       <c r="AR18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>69</v>
       </c>
       <c r="AW18" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3660,11 +3788,14 @@
       <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" t="s">
-        <v>69</v>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M19" t="s">
         <v>69</v>
@@ -3672,47 +3803,50 @@
       <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="R19" t="s">
-        <v>66</v>
-      </c>
-      <c r="U19" t="s">
-        <v>67</v>
-      </c>
-      <c r="X19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>68</v>
+      <c r="Q19" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>66</v>
       </c>
       <c r="AR19" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>67</v>
       </c>
       <c r="AW19" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3728,53 +3862,59 @@
       <c r="E20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H20" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" t="s">
-        <v>69</v>
+      <c r="F20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" t="s">
+        <v>66</v>
       </c>
       <c r="M20" t="s">
         <v>69</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R20" t="s">
-        <v>68</v>
-      </c>
-      <c r="U20" t="s">
-        <v>66</v>
-      </c>
-      <c r="X20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>67</v>
+      </c>
+      <c r="T20" t="s">
+        <v>68</v>
+      </c>
+      <c r="W20" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>68</v>
       </c>
       <c r="AR20" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW20" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3790,53 +3930,59 @@
       <c r="E21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H21" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" t="s">
-        <v>68</v>
+      <c r="F21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" t="s">
         <v>66</v>
       </c>
-      <c r="R21" t="s">
-        <v>67</v>
-      </c>
-      <c r="U21" t="s">
-        <v>69</v>
-      </c>
-      <c r="X21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>69</v>
+      <c r="Q21" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W21" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>67</v>
       </c>
       <c r="AR21" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3852,47 +3998,53 @@
       <c r="E22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="F22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" t="s">
         <v>66</v>
       </c>
       <c r="M22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
-      </c>
-      <c r="R22" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" t="s">
-        <v>66</v>
-      </c>
-      <c r="X22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>68</v>
+      </c>
+      <c r="T22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W22" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3908,47 +4060,53 @@
       <c r="E23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" t="s">
-        <v>66</v>
+      <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O23" t="s">
         <v>68</v>
       </c>
-      <c r="R23" t="s">
-        <v>69</v>
-      </c>
-      <c r="U23" t="s">
-        <v>68</v>
-      </c>
-      <c r="X23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP23" t="s">
+      <c r="Q23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3964,47 +4122,53 @@
       <c r="E24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H24" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="F24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>68</v>
       </c>
       <c r="M24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" t="s">
-        <v>66</v>
-      </c>
-      <c r="U24" t="s">
-        <v>69</v>
-      </c>
-      <c r="X24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP24" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4020,47 +4184,53 @@
       <c r="E25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H25" t="s">
-        <v>68</v>
-      </c>
-      <c r="K25" t="s">
-        <v>67</v>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="M25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O25" t="s">
         <v>66</v>
       </c>
-      <c r="R25" t="s">
-        <v>68</v>
-      </c>
-      <c r="U25" t="s">
-        <v>67</v>
-      </c>
-      <c r="X25" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="Q25" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" t="s">
+        <v>68</v>
+      </c>
+      <c r="W25" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4076,47 +4246,53 @@
       <c r="E26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" t="s">
-        <v>66</v>
+      <c r="F26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="M26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
-      </c>
-      <c r="R26" t="s">
-        <v>69</v>
-      </c>
-      <c r="U26" t="s">
-        <v>66</v>
-      </c>
-      <c r="X26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>67</v>
+      </c>
+      <c r="T26" t="s">
+        <v>69</v>
+      </c>
+      <c r="W26" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4129,44 +4305,50 @@
       <c r="E27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H27" t="s">
-        <v>68</v>
-      </c>
-      <c r="K27" t="s">
-        <v>67</v>
+      <c r="F27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
       </c>
       <c r="M27" t="s">
         <v>67</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
-      </c>
-      <c r="R27" t="s">
-        <v>68</v>
-      </c>
-      <c r="U27" t="s">
-        <v>66</v>
-      </c>
-      <c r="X27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP27" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" t="s">
+        <v>68</v>
+      </c>
+      <c r="W27" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR27" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4179,93 +4361,100 @@
       <c r="E28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H28" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" t="s">
-        <v>66</v>
+      <c r="F28" s="3"/>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
       </c>
       <c r="M28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>67</v>
-      </c>
-      <c r="R28" t="s">
-        <v>66</v>
-      </c>
-      <c r="U28" t="s">
-        <v>66</v>
-      </c>
-      <c r="X28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" t="s">
+        <v>66</v>
+      </c>
+      <c r="W28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR28" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="M29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O29" t="s">
         <v>66</v>
       </c>
-      <c r="R29" t="s">
-        <v>67</v>
-      </c>
-      <c r="U29" t="s">
-        <v>66</v>
-      </c>
-      <c r="X29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AP29" t="s">
+      <c r="Q29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="H30" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" t="s">
-        <v>69</v>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
       </c>
       <c r="M30" t="s">
         <v>69</v>
@@ -4273,70 +4462,96 @@
       <c r="O30" t="s">
         <v>69</v>
       </c>
-      <c r="R30" t="s">
-        <v>69</v>
-      </c>
-      <c r="U30" t="s">
-        <v>69</v>
-      </c>
-      <c r="X30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP30" t="s">
+      <c r="Q30" t="s">
+        <v>69</v>
+      </c>
+      <c r="T30" t="s">
+        <v>69</v>
+      </c>
+      <c r="W30" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="H31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" t="s">
-        <v>68</v>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O31" t="s">
-        <v>68</v>
-      </c>
-      <c r="R31" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" t="s">
-        <v>66</v>
-      </c>
-      <c r="X31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>68</v>
+      </c>
+      <c r="T31" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
